--- a/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
+++ b/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinekrijkamp/Documents/GitHub/Course-Modularization/static/Course_Modularization/Sensitivity analysis/Markov 3-state SA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinekrijkamp/Documents/GitHub/Course-Modularization/static/Course_Modularization/Sensitivity analysis/param template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC57936-F29D-2D49-937A-29B2F9796A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C91803C-1ECD-3F4E-92F6-FF46C50CEA38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="27780" windowHeight="18000" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>normal</t>
   </si>
@@ -178,9 +178,6 @@
     <t>0.04</t>
   </si>
   <si>
-    <t>u_triangularr</t>
-  </si>
-  <si>
     <t>0.8</t>
   </si>
   <si>
@@ -212,6 +209,18 @@
   </si>
   <si>
     <t>0.3</t>
+  </si>
+  <si>
+    <t>u_triangular</t>
+  </si>
+  <si>
+    <t>201.3</t>
+  </si>
+  <si>
+    <t>22.4</t>
+  </si>
+  <si>
+    <t>12.5</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -268,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +616,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>24</v>
@@ -696,7 +705,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -725,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>16</v>
@@ -754,13 +763,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>22.4</v>
-      </c>
-      <c r="F5">
-        <v>201.6</v>
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -857,8 +866,8 @@
       <c r="E9">
         <v>64</v>
       </c>
-      <c r="F9">
-        <v>12.5</v>
+      <c r="F9" t="s">
+        <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -878,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
@@ -904,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -961,36 +970,36 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s">
         <v>54</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1082,7 +1091,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1117,7 +1126,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1136,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">

--- a/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
+++ b/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinekrijkamp/Documents/GitHub/Course-Modularization/static/Course_Modularization/Sensitivity analysis/param template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C91803C-1ECD-3F4E-92F6-FF46C50CEA38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA47FAE6-B1D6-0047-A042-A8A7357866DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="27780" windowHeight="18000" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
+    <workbookView xWindow="1000" yWindow="0" windowWidth="24600" windowHeight="16000" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>normal</t>
   </si>
@@ -154,24 +154,12 @@
     <t>49.5</t>
   </si>
   <si>
-    <t>shape3</t>
-  </si>
-  <si>
     <t>p_test</t>
   </si>
   <si>
     <t>sigma</t>
   </si>
   <si>
-    <t>type shape1</t>
-  </si>
-  <si>
-    <t>type shape2</t>
-  </si>
-  <si>
-    <t>type shape3</t>
-  </si>
-  <si>
     <t>0.4</t>
   </si>
   <si>
@@ -221,6 +209,24 @@
   </si>
   <si>
     <t>12.5</t>
+  </si>
+  <si>
+    <t>par1</t>
+  </si>
+  <si>
+    <t>par2</t>
+  </si>
+  <si>
+    <t>par3</t>
+  </si>
+  <si>
+    <t>type par2</t>
+  </si>
+  <si>
+    <t>type par1</t>
+  </si>
+  <si>
+    <t>type par3</t>
   </si>
 </sst>
 </file>
@@ -303,12 +309,12 @@
     <tableColumn id="1" xr3:uid="{2EE18B13-4A01-534A-B477-3C4CDFA3D74C}" name="parameter"/>
     <tableColumn id="2" xr3:uid="{DE8A3103-450C-0A49-AC17-DEF57D9B72E9}" name="unit"/>
     <tableColumn id="3" xr3:uid="{B4ACDF6F-5578-4F46-9F1E-F32D5CFB6F05}" name="distribution"/>
-    <tableColumn id="7" xr3:uid="{F9FD1E79-3AEF-444D-A7ED-979F37978BDC}" name="shape1"/>
-    <tableColumn id="8" xr3:uid="{5C1533D0-DCB5-BB49-BEED-5E4B8B968375}" name="shape2"/>
-    <tableColumn id="4" xr3:uid="{BDC1362D-A7E2-464A-89E1-7CF89DF46355}" name="shape3"/>
-    <tableColumn id="5" xr3:uid="{7F0D6C5E-02C2-9B45-AE2F-B6271464F30E}" name="type shape1"/>
-    <tableColumn id="6" xr3:uid="{47A54D96-DE19-434E-8F5A-C97CFE4FE106}" name="type shape2"/>
-    <tableColumn id="9" xr3:uid="{F656A381-BB2B-CC42-87A9-E343A0C8FCBF}" name="type shape3"/>
+    <tableColumn id="7" xr3:uid="{F9FD1E79-3AEF-444D-A7ED-979F37978BDC}" name="par1"/>
+    <tableColumn id="8" xr3:uid="{5C1533D0-DCB5-BB49-BEED-5E4B8B968375}" name="par2"/>
+    <tableColumn id="4" xr3:uid="{BDC1362D-A7E2-464A-89E1-7CF89DF46355}" name="par3"/>
+    <tableColumn id="5" xr3:uid="{7F0D6C5E-02C2-9B45-AE2F-B6271464F30E}" name="type par1"/>
+    <tableColumn id="6" xr3:uid="{47A54D96-DE19-434E-8F5A-C97CFE4FE106}" name="type par2"/>
+    <tableColumn id="9" xr3:uid="{F656A381-BB2B-CC42-87A9-E343A0C8FCBF}" name="type par3"/>
     <tableColumn id="10" xr3:uid="{8CDB33AF-58E3-2342-AF77-BC63375DA563}" name="source"/>
     <tableColumn id="11" xr3:uid="{2C3C4A79-D320-854B-9918-5C6DC2D26055}" name="note"/>
   </tableColumns>
@@ -616,7 +622,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,22 +647,22 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -676,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>24</v>
@@ -705,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>9</v>
@@ -734,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>16</v>
@@ -763,13 +769,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -867,7 +873,7 @@
         <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -887,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
@@ -913,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>41</v>
@@ -947,7 +953,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -956,50 +962,50 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1091,7 +1097,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1126,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,12 +1142,12 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
+++ b/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinekrijkamp/Documents/GitHub/Course-Modularization/static/Course_Modularization/Sensitivity analysis/param template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA47FAE6-B1D6-0047-A042-A8A7357866DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C418DE-9D6D-4642-BA37-756B8D9606A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="24600" windowHeight="16000" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
+    <workbookView xWindow="1000" yWindow="0" windowWidth="24600" windowHeight="16000" activeTab="1" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71121B6-4AC4-7C47-A667-34D480C8123C}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A49928-76CD-3D42-82B4-83E23543752F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
+++ b/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinekrijkamp/Documents/GitHub/Course-Modularization/static/Course_Modularization/Sensitivity analysis/param template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C418DE-9D6D-4642-BA37-756B8D9606A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942475D0-D288-1140-B3E2-D6AF3B9DE0AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="24600" windowHeight="16000" activeTab="1" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
+    <workbookView xWindow="1000" yWindow="0" windowWidth="24600" windowHeight="16000" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>normal</t>
   </si>
@@ -40,15 +40,9 @@
     <t>gamma</t>
   </si>
   <si>
-    <t>weibull</t>
-  </si>
-  <si>
     <t>uniform</t>
   </si>
   <si>
-    <t xml:space="preserve">dirichlet </t>
-  </si>
-  <si>
     <t>parameter</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>shape2</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>c_D</t>
   </si>
   <si>
@@ -145,72 +136,24 @@
     <t>utility</t>
   </si>
   <si>
-    <t>50.4</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>49.5</t>
-  </si>
-  <si>
     <t>p_test</t>
   </si>
   <si>
     <t>sigma</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
     <t>lower_limit</t>
   </si>
   <si>
     <t>upper_limit</t>
   </si>
   <si>
-    <t>p_test_dir</t>
-  </si>
-  <si>
     <t>triangle</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>u_triangular</t>
   </si>
   <si>
-    <t>201.3</t>
-  </si>
-  <si>
-    <t>22.4</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
     <t>par1</t>
   </si>
   <si>
@@ -227,15 +170,15 @@
   </si>
   <si>
     <t>type par3</t>
+  </si>
+  <si>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -283,8 +226,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,8 +246,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{013E9FE7-7F65-0A4F-9815-1348CD7E9526}" name="Table2" displayName="Table2" ref="A1:K17" totalsRowShown="0">
-  <autoFilter ref="A1:K17" xr:uid="{D08D5AF2-D758-994C-A70B-2017D12FD81E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{013E9FE7-7F65-0A4F-9815-1348CD7E9526}" name="Table2" displayName="Table2" ref="A1:K15" totalsRowShown="0">
+  <autoFilter ref="A1:K15" xr:uid="{D08D5AF2-D758-994C-A70B-2017D12FD81E}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{2EE18B13-4A01-534A-B477-3C4CDFA3D74C}" name="parameter"/>
     <tableColumn id="2" xr3:uid="{DE8A3103-450C-0A49-AC17-DEF57D9B72E9}" name="unit"/>
@@ -619,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71121B6-4AC4-7C47-A667-34D480C8123C}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:K17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,382 +581,379 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
         <v>24</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>450</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="4">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>281</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="4">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>767</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
+      <c r="D5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>201.3</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>400</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>25</v>
       </c>
       <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>1000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>10</v>
       </c>
       <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4">
         <v>0</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>800</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>60</v>
+      <c r="F9" s="4">
+        <v>12.5</v>
       </c>
       <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
+      <c r="D10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>12.6</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
+      <c r="D11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>49.5</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
+      <c r="D13" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>49</v>
-      </c>
       <c r="I14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1024,17 +964,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F6513AE-F03D-F14C-9416-E8CB156AD6CC}">
+          <x14:formula1>
+            <xm:f>'distribution names'!$C$2:$C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>G13:H13 H2:I12 G14:I15</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C8585BF0-6750-394F-9D1D-7BD53BE8844F}">
           <x14:formula1>
             <xm:f>'distribution names'!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F6513AE-F03D-F14C-9416-E8CB156AD6CC}">
-          <x14:formula1>
-            <xm:f>'distribution names'!$C$2:$C$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>G14:I17 G13:H13 H2:I12</xm:sqref>
+          <xm:sqref>C2:C15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1046,21 +986,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A49928-76CD-3D42-82B4-83E23543752F}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1068,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1092,15 +1032,15 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1108,46 +1048,40 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
+++ b/static/Course_Modularization/Sensitivity analysis/param template/param.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinekrijkamp/Documents/GitHub/Course-Modularization/static/Course_Modularization/Sensitivity analysis/param template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942475D0-D288-1140-B3E2-D6AF3B9DE0AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C128819-0336-A14E-828B-0928DFE7B0A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="0" windowWidth="24600" windowHeight="16000" xr2:uid="{6119A56A-EAB1-154D-9078-6C830EF23C18}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>normal</t>
   </si>
@@ -173,13 +173,16 @@
   </si>
   <si>
     <t>fixed</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,12 +197,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,10 +219,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -565,7 +561,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,13 +620,13 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>24</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>450</v>
       </c>
       <c r="G2" t="s">
@@ -653,13 +649,13 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>281</v>
       </c>
       <c r="G3" t="s">
@@ -682,13 +678,13 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>16</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>767</v>
       </c>
       <c r="G4" t="s">
@@ -711,13 +707,13 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>22.4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>201.3</v>
       </c>
       <c r="G5" t="s">
@@ -740,14 +736,17 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>400</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>16</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -766,14 +765,17 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>100</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -792,13 +794,13 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -811,14 +813,17 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>64</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>12.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -837,14 +842,17 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>50.4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>12.6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -863,14 +871,17 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>49.5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>49.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -889,13 +900,13 @@
       <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -908,13 +919,13 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.4</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.04</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="3"/>
       <c r="G13" t="s">
         <v>13</v>
       </c>
@@ -932,13 +943,13 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0.8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.95</v>
       </c>
       <c r="G14" t="s">
@@ -963,18 +974,30 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F6513AE-F03D-F14C-9416-E8CB156AD6CC}">
           <x14:formula1>
             <xm:f>'distribution names'!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G13:H13 H2:I12 G14:I15</xm:sqref>
+          <xm:sqref>G15 H15 I15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C8585BF0-6750-394F-9D1D-7BD53BE8844F}">
           <x14:formula1>
             <xm:f>'distribution names'!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C15</xm:sqref>
+          <xm:sqref>C15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24DFE3FB-AC7F-2C40-B5FC-152BC362FF98}">
+          <x14:formula1>
+            <xm:f>'distribution names'!$C$2:$C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G14 H2:H14 I2:I14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C538BFF2-3893-2843-97A0-FF4FF1064CA5}">
+          <x14:formula1>
+            <xm:f>'distribution names'!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -984,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A49928-76CD-3D42-82B4-83E23543752F}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,86 +1028,94 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C2:C13">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>